--- a/Test Cases/Iteration 9/Iteration 9 Test Cases Result.xlsx
+++ b/Test Cases/Iteration 9/Iteration 9 Test Cases Result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -1153,52 +1153,6 @@
 Click 'Generate Results' </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Rank, Specialty, Number of Engagement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1, Surgery - Orthopaedics, 4
-2, Medicine - Gastroenterology, 3
-2, Surgery - ENT, 3
-4, Medicine - Endocrinology, 2
-4, Medicine - Oncology, 2
-4, Obs &amp; Gynae, 2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Surgery - General, 2
-8, Medicine - Cardiology, 1
-8, Medicine - Renal, 1
-8, Surgery - Neuro, 1</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Ranking - Speciality (View Doctor List) </t>
   </si>
   <si>
@@ -1292,101 +1246,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. Melivon, 7
-2, Mostfizur, 4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rank 3: 3 Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Andreas
-Ninik
-SMG 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Rank 6: 2 Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-AAIJ
-EMA
-ULINK
-US Emb
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Rank 10 : 1 Case</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-AAIS
-Dr. Sherly
-MedikaPlaza</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1, AAIS, 7
 1, US Emb, 7
 3, AAIJ, 4
@@ -1445,25 +1304,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1, AAIJ, 9
-2, AAIS, 6
-3, Ulink Myanmar, 4
-4, Blue Dot, 3
-4, Dyah, 3
-</t>
-    </r>
+    <t xml:space="preserve">Clear all data (if any) in database and bootstrap ‘KPI Analysis’ file in the Iteration 8 bootstrap folder </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1473,8 +1316,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Rank 6 : 2 Cases</t>
+      <t>Rank, Doctor, Number of Appointment, Clinic, Specialty</t>
     </r>
     <r>
       <rPr>
@@ -1485,13 +1327,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Andreas
-EMA
-Mostafizur
-Priscilla Yu Miao
-ULINK
-US Emb
-Veron
+1, Dede Selamat Sutedja, 3, The Singapore Gastro Liver Internist Centre, Medicine - Gastroenterology
 </t>
     </r>
     <r>
@@ -1503,7 +1339,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 13: 1 Case</t>
+      <t xml:space="preserve">Rank 2 Number of Appointment 1 : </t>
     </r>
     <r>
       <rPr>
@@ -1514,16 +1350,684 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Dr. Sherly
-IndoMed
-Melivon
-Mrs Tan
-Ninik
-SMG</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear all data (if any) in database and bootstrap ‘KPI Analysis’ file in the Iteration 8 bootstrap folder </t>
+Brian Lee Pheng Hui
+Chia Yee Tien
+Francis Wong Yoke Hae
+Harry Fok Wing Sang
+Hsieh Wen Son
+Kelvin Thia Teck Joo
+Lee Eu Jin
+Ng Tay Meng
+Ronald Brett
+Sam Peh Oon Hui
+Tan Khai Tong
+Timothy Lee Kam-Yiu
+Wong Poo Sing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ranking - Referral </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(true &amp; false for medical and visa)</t>
+    </r>
+  </si>
+  <si>
+    <t>Search Clients</t>
+  </si>
+  <si>
+    <t>Search "Ali" in the Client List search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
+  </si>
+  <si>
+    <t>0 - 10</t>
+  </si>
+  <si>
+    <t>11 - 20</t>
+  </si>
+  <si>
+    <t>21 - 30</t>
+  </si>
+  <si>
+    <t>31 - 40</t>
+  </si>
+  <si>
+    <t>41 - 50</t>
+  </si>
+  <si>
+    <t>51 - 60</t>
+  </si>
+  <si>
+    <t>61 - 70</t>
+  </si>
+  <si>
+    <t>71 - 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 and above </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease :  50% Indo Visa : -25% non-indo visa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease : -57% visa :  -40% non-visa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 -  5 Indo Visa : 1 Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -60% indo : 100% non-indo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  -  7 Indo Visa :  4  Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -72% : -50% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease  - : 167% non-indo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease: 450% : 100% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2014 -  0 Inpatient :  0 Outpatient
+                    / No result 
+Jan 2015 -   10 Inpatient :  19 Outpatient
+Increase / Decrease : -   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  -  0 Inpatient :  0 Outpatient       
+                  / No result
+Jan 2015 -  10 Inpatient : 19  Outpatient
+Increase / Decrease : - </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 5 Inpatient : 27 Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease 40%: -8%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 10 Inpatient : 19  Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease : -30% : 32% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 - 10 Inpatient : 26 Outpatient
+June 2016 - 5 Inpatient : 7 Outpatient
+Increase / Decrease : -50% : -73% 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  - 11 Inpatient : 13 Outpatient
+June 2016 -  5 Inpatient : 7 Outpatient
+Increase / Decrease : -54% : -46% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compare with Previous Month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Nov 2016 - 10 Inpatient : 14 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease  :   -20% :36% 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  -5 Inpatient : 27 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease - 60% : -30%</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">569 Clients with Age without Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 Clients with Age and Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Female with no bd, 1 male with no bd, 100 clients without bd and gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[NEED RECONFIRM] 668 Unique Clients </t>
+  </si>
+  <si>
+    <t>Current Iteration: 9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
+                    / No result 
+Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease - 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
+                  / No result
+Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease : - </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of VISA requested </t>
+  </si>
+  <si>
+    <t>Number of Visa Clients</t>
+  </si>
+  <si>
+    <t>Months : Count
+July : 4
+Aug : 4
+Sept: 9
+Oct  : 12
+Nov : 3
+Dec : 19</t>
+  </si>
+  <si>
+    <t>Number of Medical Clients</t>
+  </si>
+  <si>
+    <t>Months : Count
+July : 20
+Aug : 13
+Sept: 19
+Oct  : 20
+Nov : 24
+Dec : 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 3 Doctors </t>
+  </si>
+  <si>
+    <t>December
+Rank Doctor Count Clinic  Speciaty 
+1 Karmen Wong Kit Yee  2 Karmen Wong Medical Oncology Clinic  Medicine - Oncology
+1 Low Wong Kein 2 Novena ENT - Head &amp; Neck Surgery Specialist Centre  Surgery - ENT
+2 Adrian Saurajen Siew Ming 1 Ear Nose Throat &amp; Snoring Centre Pte Ltd Surgery - ENT
+2 Adrian Tan Keng Yew 1 Adrian Tan Neurology Practice Pte Ltd Medicine - Neurology
+2 Akira Wu Yik TIan  1 Wu Nephrology &amp; Medical Clinic Medicine - Renal
+2 Alvin Ng Choong Meng 1 The Endocrine Clinic  Medicine - Endocrinology
+2 Chee Cheng Ean 1 NCIS Medicine - Oncology
+2 Goh Boon Kee 1 SMG: Skin Physicians Medicine - Dermatology
+2 Jennifer Liauw Joo Yen 1 The Surgical Practice @ Mount Elizabeth Surgery - General
+2 Khoo Kei Siong 1 Parkway Cancer Centre Medicine - Oncology 
+2 Koh Wei Howe 1 Koh Wei Howe Arthritis &amp; Rheumatism Medical Clinic  Medicine - Rheumatology
+2 Leong Hoe Nam 1 Rophi Clinic Medicine - Infectious Diseases 
+2 Leong Keng Hong 1 Leong Keng Hong Arthritis &amp; Medical Clinic Medicine - Rheumatology
+2 Marianne Hendricks 1  Thomson Medical Centre  - 
+2 Sue Lo Soo Kien 1  The Harley Street Clinic Heart and Cancer Centre Medicine - Oncology
+2 Toh Choon Lai 1 Orthopaedic Associates  Surgery - Orthopaedics
+2 Wee Siew Bock 1  Wee Breast &amp; General Surgery Surgery - Breast</t>
+  </si>
+  <si>
+    <t>November
+Rank Doctor Count Clinic Speciaty 
+1 Andrew Loy Heng Chian 2 The Ear Nose Throat - Head &amp; Neck Centre Surgery - ENT
+2 Adrian Tan Keng Yew 1 Adrian Tan Neurology Practice Pte Ltd Medicine - Neurology
+2 Chan Hsiang Sui 1 H S Chan Surgery Pte Ltd Surgery - General
+2 Cheng Jun 1 Cheng Jun Gastroenterology &amp; Medical Clinic  Medicine - Gastroenterology
+2 Chew Soo Ping 1 S P Chew Surgery Pte Ltd Surgery - General
+ 2 Christopher Goh Hood Keng 1 Novena ENT - Head &amp; Neck Surgery Specialist Centre Surgery - ENT 
+2 Ho Siew Hong 1  S H Ho Urology And Laparoscopy Centre Surgery - Urology
+2 Hsieh Wen Son 1 Singapore Oncology Consultants Medicine - Oncology  
+2  Karmen Wong Kit Yee 1 Karmen Wong Medical Oncology Clinic  Medicine - Oncology
+2 Lee Kim En 1 Lee Kim En Neurology Pte Ltd Medicine - Neurology
+2 Michael Lim Chun Leng 1 Cardiology Associates Pte Ltd Medicine - Cardiology
+2 Ng Puay Yong 1 Spine and Brain Surgery Pte Ltd Surgery - Neuro
+2 Ong Kian Chung 1 Island Orthopaedic Consultants Pte Ltd Surgery - Orthopaedics
+2 Sue Lo Soo Kien 1  The Harley Street Clinic Heart and Cancer Centre Medicine - Oncology
+2 Tan Kok Soon 1 Tan Kok Soon Heart Specialist Clinic Medicine - Cardiology
+2 Ting Wen Chang 1 Haematology Oncology Clinic Pte Ltd Medicine - Haematology</t>
+  </si>
+  <si>
+    <t>Top 5 Referral Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December
+Rank ReferralPerson Count
+1) Ulink Myanmar 7
+2) AAIJ 4 
+2) EMA 4 
+4) AAIS 2  
+4) Andreas 2 
+4) IndoMed 2 
+4) Mrs Tan 2 
+4) TMS Healthcare 2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">November
+Rank ReferralPerson Count
+1) EMA 3  
+1) IndoMed 3
+3) AAIS 2 
+3) Andreas 2 
+3) CNOOC 2  </t>
+  </si>
+  <si>
+    <t>Pass / Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  3        :    3          :  32
+Gender% 50    :    50              
+Overall %     5.66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number     3     :      4        : 25
+Gender %  43   :   57    
+Overall%          6.60% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1      :        4      :       37
+Gender %  20  :  80    
+Overall%           4.72%   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   14  :  13 : 95 
+Gender % 52 : 48      
+Overall%        25.47%     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  11   : 8 : 97 
+Gender %  58 :   42  
+Overall%       17.92%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   18       :     5         : 83 
+Gender %      78 : 22
+Overall%            21.70%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   7  :   4   : 63
+Gender %     64 : 36  
+Overall%        10.38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   4      :     2          :      28 
+Gender %   67 : 33    
+Overall%           5.66% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   0       :  2            : 5 
+Gender %   0 : 100   
+Overall%             1.89%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of Visa  Count 
+America : 8
+ICA - STVP : 2 
+Indonesia - VKBKP 212 : 18 
+Indonesia - VKU 211 : 29 
+Indonesia - VTT 312 - Less than 6 months 26
+Indonesia - VTT 312 - More than 6 months : 41
+Indonesia - VTT 317 - Less than 6 months 2
+Indonesia - VTT 317 - More than 6 months : 1
+Maternity : 9
+Vietnam : 3 
+- : 86 </t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>More than 1000 records shown.</t>
+  </si>
+  <si>
+    <t>Female more than 90%</t>
   </si>
   <si>
     <r>
@@ -1561,7 +2065,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 5 - Number of Appointment 1 :</t>
+      <t>Rank 2 - Number of Appointment 1 :</t>
     </r>
     <r>
       <rPr>
@@ -1621,7 +2125,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Rank 5 - Number of Appointment 1: </t>
+      <t xml:space="preserve">Rank 3 - Number of Appointment 1: </t>
     </r>
     <r>
       <rPr>
@@ -1654,6 +2158,25 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Rank, Specialty, Number of Engagement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, Surgery - Orthopaedics, 4
+2, Medicine - Gastroenterology, 3
+2, Surgery - ENT, 3
+3, Medicine - Endocrinology, 2
+3, Medicine - Oncology, 2
+3, Obs &amp; Gynae, 2</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1662,7 +2185,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank, Doctor, Number of Appointment, Clinic, Specialty</t>
+      <t xml:space="preserve">
+3, </t>
     </r>
     <r>
       <rPr>
@@ -1672,43 +2196,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-1, Dede Selamat Sutedja, 3, The Singapore Gastro Liver Internist Centre, Medicine - Gastroenterology
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Rank 2 Number of Appointment 1 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brian Lee Pheng Hui
-Chia Yee Tien
-Francis Wong Yoke Hae
-Harry Fok Wing Sang
-Hsieh Wen Son
-Kelvin Thia Teck Joo
-Lee Eu Jin
-Ng Tay Meng
-Ronald Brett
-Sam Peh Oon Hui
-Tan Khai Tong
-Timothy Lee Kam-Yiu
-Wong Poo Sing</t>
+      <t>Surgery - General, 2
+4, Medicine - Cardiology, 1
+4, Medicine - Renal, 1
+4, Surgery - Neuro, 1</t>
     </r>
   </si>
   <si>
@@ -1727,7 +2218,7 @@
       <t xml:space="preserve">, Medicine - Gastroenterology, 6
 2, Obs &amp; Gynae, 3
 2, Surgery - Orthopaedics, 3
-4, Dental, 2
+3, Dental, 2
 </t>
     </r>
     <r>
@@ -1739,7 +2230,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 5:</t>
+      <t>Rank 4:</t>
     </r>
     <r>
       <rPr>
@@ -1763,66 +2254,31 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ranking - Referral </t>
+      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(true &amp; false for medical and visa)</t>
-    </r>
-  </si>
-  <si>
-    <t>Search Clients</t>
-  </si>
-  <si>
-    <t>Search "Ali" in the Client List search box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
-  </si>
-  <si>
-    <t>0 - 10</t>
-  </si>
-  <si>
-    <t>11 - 20</t>
-  </si>
-  <si>
-    <t>21 - 30</t>
-  </si>
-  <si>
-    <t>31 - 40</t>
-  </si>
-  <si>
-    <t>41 - 50</t>
-  </si>
-  <si>
-    <t>51 - 60</t>
-  </si>
-  <si>
-    <t>61 - 70</t>
-  </si>
-  <si>
-    <t>71 - 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 and above </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t xml:space="preserve">1. Melivon, 7
+2, Mostfizur, 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rank 3: 3 Cases</t>
     </r>
     <r>
       <rPr>
@@ -1833,22 +2289,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease :  50% Indo Visa : -25% non-indo visa
+Andreas
+Ninik
+SMG 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Compare with Previous Year </t>
+Rank 4: 2 Cases</t>
     </r>
     <r>
       <rPr>
@@ -1859,22 +2315,23 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease : -57% visa :  -40% non-visa</t>
-    </r>
-  </si>
-  <si>
+AAIJ
+EMA
+ULINK
+US Emb
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t xml:space="preserve">
+Rank 5 : 1 Case</t>
     </r>
     <r>
       <rPr>
@@ -1885,22 +2342,42 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-May 2016 -  5 Indo Visa : 1 Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease : -60% indo : 100% non-indo
+AAIS
+Dr. Sherly
+MedikaPlaza</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">1, AAIJ, 9
+2, AAIS, 6
+3, Ulink Myanmar, 4
+4, Blue Dot, 3
+4, Dyah, 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-Compare with Previous Year </t>
+Rank 5 : 2 Cases</t>
     </r>
     <r>
       <rPr>
@@ -1911,22 +2388,25 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-June 2015  -  7 Indo Visa :  4  Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease : -72% : -50% </t>
-    </r>
-  </si>
-  <si>
+Andreas
+EMA
+Mostafizur
+Priscilla Yu Miao
+ULINK
+US Emb
+Veron
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t>Rank 6: 1 Case</t>
     </r>
     <r>
       <rPr>
@@ -1937,493 +2417,13 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
-Increase / Decrease  - : 167% non-indo 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
-Increase / Decrease: 450% : 100% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2014 -  0 Inpatient :  0 Outpatient
-                    / No result 
-Jan 2015 -   10 Inpatient :  19 Outpatient
-Increase / Decrease : -   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  -  0 Inpatient :  0 Outpatient       
-                  / No result
-Jan 2015 -  10 Inpatient : 19  Outpatient
-Increase / Decrease : - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015 - 5 Inpatient : 27 Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease 40%: -8%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2015  - 10 Inpatient : 19  Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease : -30% : 32% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-May 2016 - 10 Inpatient : 26 Outpatient
-June 2016 - 5 Inpatient : 7 Outpatient
-Increase / Decrease : -50% : -73% 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-June 2015  - 11 Inpatient : 13 Outpatient
-June 2016 -  5 Inpatient : 7 Outpatient
-Increase / Decrease : -54% : -46% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compare with Previous Month</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Nov 2016 - 10 Inpatient : 14 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease  :   -20% :36% 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  -5 Inpatient : 27 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease - 60% : -30%</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">569 Clients with Age without Gender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">106 Clients with Age and Gender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Female with no bd, 1 male with no bd, 100 clients without bd and gender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[NEED RECONFIRM] 668 Unique Clients </t>
-  </si>
-  <si>
-    <t>Current Iteration: 9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
-                    / No result 
-Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
-                  / No result
-Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease : - </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Result </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Result </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Types of VISA requested </t>
-  </si>
-  <si>
-    <t>Number of Visa Clients</t>
-  </si>
-  <si>
-    <t>Months : Count
-July : 4
-Aug : 4
-Sept: 9
-Oct  : 12
-Nov : 3
-Dec : 19</t>
-  </si>
-  <si>
-    <t>Number of Medical Clients</t>
-  </si>
-  <si>
-    <t>Months : Count
-July : 20
-Aug : 13
-Sept: 19
-Oct  : 20
-Nov : 24
-Dec : 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top 3 Doctors </t>
-  </si>
-  <si>
-    <t>December
-Rank Doctor Count Clinic  Speciaty 
-1 Karmen Wong Kit Yee  2 Karmen Wong Medical Oncology Clinic  Medicine - Oncology
-1 Low Wong Kein 2 Novena ENT - Head &amp; Neck Surgery Specialist Centre  Surgery - ENT
-2 Adrian Saurajen Siew Ming 1 Ear Nose Throat &amp; Snoring Centre Pte Ltd Surgery - ENT
-2 Adrian Tan Keng Yew 1 Adrian Tan Neurology Practice Pte Ltd Medicine - Neurology
-2 Akira Wu Yik TIan  1 Wu Nephrology &amp; Medical Clinic Medicine - Renal
-2 Alvin Ng Choong Meng 1 The Endocrine Clinic  Medicine - Endocrinology
-2 Chee Cheng Ean 1 NCIS Medicine - Oncology
-2 Goh Boon Kee 1 SMG: Skin Physicians Medicine - Dermatology
-2 Jennifer Liauw Joo Yen 1 The Surgical Practice @ Mount Elizabeth Surgery - General
-2 Khoo Kei Siong 1 Parkway Cancer Centre Medicine - Oncology 
-2 Koh Wei Howe 1 Koh Wei Howe Arthritis &amp; Rheumatism Medical Clinic  Medicine - Rheumatology
-2 Leong Hoe Nam 1 Rophi Clinic Medicine - Infectious Diseases 
-2 Leong Keng Hong 1 Leong Keng Hong Arthritis &amp; Medical Clinic Medicine - Rheumatology
-2 Marianne Hendricks 1  Thomson Medical Centre  - 
-2 Sue Lo Soo Kien 1  The Harley Street Clinic Heart and Cancer Centre Medicine - Oncology
-2 Toh Choon Lai 1 Orthopaedic Associates  Surgery - Orthopaedics
-2 Wee Siew Bock 1  Wee Breast &amp; General Surgery Surgery - Breast</t>
-  </si>
-  <si>
-    <t>November
-Rank Doctor Count Clinic Speciaty 
-1 Andrew Loy Heng Chian 2 The Ear Nose Throat - Head &amp; Neck Centre Surgery - ENT
-2 Adrian Tan Keng Yew 1 Adrian Tan Neurology Practice Pte Ltd Medicine - Neurology
-2 Chan Hsiang Sui 1 H S Chan Surgery Pte Ltd Surgery - General
-2 Cheng Jun 1 Cheng Jun Gastroenterology &amp; Medical Clinic  Medicine - Gastroenterology
-2 Chew Soo Ping 1 S P Chew Surgery Pte Ltd Surgery - General
- 2 Christopher Goh Hood Keng 1 Novena ENT - Head &amp; Neck Surgery Specialist Centre Surgery - ENT 
-2 Ho Siew Hong 1  S H Ho Urology And Laparoscopy Centre Surgery - Urology
-2 Hsieh Wen Son 1 Singapore Oncology Consultants Medicine - Oncology  
-2  Karmen Wong Kit Yee 1 Karmen Wong Medical Oncology Clinic  Medicine - Oncology
-2 Lee Kim En 1 Lee Kim En Neurology Pte Ltd Medicine - Neurology
-2 Michael Lim Chun Leng 1 Cardiology Associates Pte Ltd Medicine - Cardiology
-2 Ng Puay Yong 1 Spine and Brain Surgery Pte Ltd Surgery - Neuro
-2 Ong Kian Chung 1 Island Orthopaedic Consultants Pte Ltd Surgery - Orthopaedics
-2 Sue Lo Soo Kien 1  The Harley Street Clinic Heart and Cancer Centre Medicine - Oncology
-2 Tan Kok Soon 1 Tan Kok Soon Heart Specialist Clinic Medicine - Cardiology
-2 Ting Wen Chang 1 Haematology Oncology Clinic Pte Ltd Medicine - Haematology</t>
-  </si>
-  <si>
-    <t>Top 5 Referral Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December
-Rank ReferralPerson Count
-1) Ulink Myanmar 7
-2) AAIJ 4 
-2) EMA 4 
-4) AAIS 2  
-4) Andreas 2 
-4) IndoMed 2 
-4) Mrs Tan 2 
-4) TMS Healthcare 2   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">November
-Rank ReferralPerson Count
-1) EMA 3  
-1) IndoMed 3
-3) AAIS 2 
-3) Andreas 2 
-3) CNOOC 2  </t>
-  </si>
-  <si>
-    <t>Pass / Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number  3        :    3          :  32
-Gender% 50    :    50              
-Overall %     5.66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number     3     :      4        : 25
-Gender %  43   :   57    
-Overall%          6.60% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1      :        4      :       37
-Gender %  20  :  80    
-Overall%           4.72%   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   14  :  13 : 95 
-Gender % 52 : 48      
-Overall%        25.47%     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number  11   : 8 : 97 
-Gender %  58 :   42  
-Overall%       17.92%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   18       :     5         : 83 
-Gender %      78 : 22
-Overall%            21.70%  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   7  :   4   : 63
-Gender %     64 : 36  
-Overall%        10.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   4      :     2          :      28 
-Gender %   67 : 33    
-Overall%           5.66% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   0       :  2            : 5 
-Gender %   0 : 100   
-Overall%             1.89%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of Visa  Count 
-America : 8
-ICA - STVP : 2 
-Indonesia - VKBKP 212 : 18 
-Indonesia - VKU 211 : 29 
-Indonesia - VTT 312 - Less than 6 months 26
-Indonesia - VTT 312 - More than 6 months : 41
-Indonesia - VTT 317 - Less than 6 months 2
-Indonesia - VTT 317 - More than 6 months : 1
-Maternity : 9
-Vietnam : 3 
-- : 86 </t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>More than 1000 records shown.</t>
-  </si>
-  <si>
-    <t>Female more than 90%</t>
+Dr. Sherly
+IndoMed
+Melivon
+Mrs Tan
+Ninik
+SMG</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3132,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -3145,42 +3145,42 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3205,16 +3205,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3222,16 +3222,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3239,16 +3239,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3256,16 +3256,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3273,16 +3273,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>303</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3290,16 +3290,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3307,16 +3307,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>311</v>
-      </c>
       <c r="E14" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3324,16 +3324,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3341,16 +3341,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3378,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B1" s="22"/>
     </row>
@@ -3390,14 +3390,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="26" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="186" x14ac:dyDescent="0.35">
@@ -3405,16 +3405,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="119" customHeight="1" x14ac:dyDescent="0.35">
@@ -3422,14 +3422,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D4" s="29"/>
       <c r="F4" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3437,14 +3437,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D5" s="29"/>
       <c r="F5" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
@@ -3452,16 +3452,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="155" x14ac:dyDescent="0.35">
@@ -3469,16 +3469,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3496,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -3560,7 +3560,7 @@
         <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3576,7 +3576,7 @@
         <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3592,7 +3592,7 @@
         <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3608,7 +3608,7 @@
         <v>242</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3618,13 +3618,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3637,10 +3637,10 @@
         <v>241</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3650,13 +3650,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -3666,13 +3666,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3682,13 +3682,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3698,13 +3698,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="13"/>
     </row>
@@ -3895,7 +3895,7 @@
         <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3909,7 +3909,7 @@
         <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3923,7 +3923,7 @@
         <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3937,7 +3937,7 @@
         <v>231</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="170.5" x14ac:dyDescent="0.35">
@@ -3951,7 +3951,7 @@
         <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3965,7 +3965,7 @@
         <v>234</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3979,7 +3979,7 @@
         <v>235</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3993,7 +3993,7 @@
         <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -4532,13 +4532,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/Test Cases/Iteration 9/Iteration 9 Test Cases Result.xlsx
+++ b/Test Cases/Iteration 9/Iteration 9 Test Cases Result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -1489,109 +1489,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-May 2016 -  5 Indo Visa : 1 Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease : -60% indo : 100% non-indo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-June 2015  -  7 Indo Visa :  4  Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease : -72% : -50% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
-Increase / Decrease  - : 167% non-indo 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
-Increase / Decrease: 450% : 100% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 Dec 2014 -  0 Inpatient :  0 Outpatient
                     / No result 
 Jan 2015 -   10 Inpatient :  19 Outpatient
@@ -1635,109 +1532,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015 - 5 Inpatient : 27 Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease 40%: -8%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2015  - 10 Inpatient : 19  Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease : -30% : 32% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-May 2016 - 10 Inpatient : 26 Outpatient
-June 2016 - 5 Inpatient : 7 Outpatient
-Increase / Decrease : -50% : -73% 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-June 2015  - 11 Inpatient : 13 Outpatient
-June 2016 -  5 Inpatient : 7 Outpatient
-Increase / Decrease : -54% : -46% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Compare with Previous Month</t>
     </r>
     <r>
@@ -1793,60 +1587,6 @@
   </si>
   <si>
     <t>Current Iteration: 9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
-                    / No result 
-Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
-                  / No result
-Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease : - </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Expected Result </t>
@@ -2423,6 +2163,266 @@
 Mrs Tan
 Ninik
 SMG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
+                    / No result 
+Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease - 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
+                  / No result
+Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease - </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 -  5 Indo Visa : 1 Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -60% indo : 100% non-indo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  -  7 Indo Visa :  4  Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -71% : -50% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
+Dec 2016 - 12 Indo Visa : 7 Non-Indo Visa
+Increase / Decrease  - : 167% non-indo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
+Dec 2016 - 12 Indo Visa : 7 Non-Indo Visa
+Increase / Decrease: 450% : 100% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 5 Inpatient : 27 Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease 40%: -7%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 10 Inpatient : 19  Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease : -30% : 32% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 - 10 Inpatient : 26 Outpatient
+June 2016 - 5 Inpatient : 7 Outpatient
+Increase / Decrease : -50% : -73% 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  - 11 Inpatient : 13 Outpatient
+June 2016 -  5 Inpatient : 7 Outpatient
+Increase / Decrease : -55% : -46% </t>
     </r>
   </si>
 </sst>
@@ -3145,7 +3145,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="5"/>
@@ -3159,28 +3159,28 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3208,13 +3208,13 @@
         <v>257</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3225,13 +3225,13 @@
         <v>258</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3242,13 +3242,13 @@
         <v>259</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3259,13 +3259,13 @@
         <v>260</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3276,13 +3276,13 @@
         <v>261</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3293,13 +3293,13 @@
         <v>262</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>298</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3310,13 +3310,13 @@
         <v>263</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3327,13 +3327,13 @@
         <v>264</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>305</v>
-      </c>
       <c r="E15" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="62" x14ac:dyDescent="0.35">
@@ -3344,13 +3344,13 @@
         <v>265</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3378,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B1" s="22"/>
     </row>
@@ -3390,14 +3390,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="26" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="186" x14ac:dyDescent="0.35">
@@ -3405,16 +3405,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="119" customHeight="1" x14ac:dyDescent="0.35">
@@ -3422,14 +3422,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D4" s="29"/>
       <c r="F4" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3437,14 +3437,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D5" s="29"/>
       <c r="F5" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
@@ -3452,16 +3452,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="155" x14ac:dyDescent="0.35">
@@ -3469,16 +3469,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3493,6 +3493,349 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="12.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="403" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="279" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="169.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="247" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="124" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="291.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="247" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="354.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -3510,24 +3853,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -3549,341 +3884,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="403" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="279" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="169.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="93" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="247" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="124" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="291.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="247" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="354.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" ht="170.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
@@ -3895,7 +3895,7 @@
         <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3923,7 +3923,7 @@
         <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3937,7 +3937,7 @@
         <v>231</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="170.5" x14ac:dyDescent="0.35">
@@ -3951,7 +3951,7 @@
         <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3965,7 +3965,7 @@
         <v>234</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3979,7 +3979,7 @@
         <v>235</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3993,7 +3993,7 @@
         <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
